--- a/iherb_추천시스템/iherb_userlist_morethan10.xlsx
+++ b/iherb_추천시스템/iherb_userlist_morethan10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="561">
   <si>
     <t>고객링크</t>
   </si>
@@ -256,151 +256,592 @@
     <t>https://kr.iherb.com/me/5743653938266476824</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/6172A76FDD</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5678508938939691867</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/0A90490507</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5360331396045001243</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/454B2C8226</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5084918918349309727</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/B1A5B58E6F</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2571056</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/8FC1F5E2C6</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2747959</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5232504159979147954</t>
+    <t>https://kr.iherb.com/me/5345016270909060262</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/A5EB9686B2</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/706FFEA76B</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/0A504D70B3</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5618211650247355368</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/8FC037C7DE</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/BD49509029</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5164640077400727811</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1428688</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4C482833F7</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer3285463</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/C9FD6FA7B2</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/jeremy99</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5655756111974413449</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2973648</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4932763538512774268</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5159296029198652118</t>
+    <t>https://kr.iherb.com/me/47659C2EF5</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5508209603426469969</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5564606211880614689</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/D8704528E7</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4991816682679374825</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5392891388415749139</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/4872805816404766230</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/3C618C2DE3</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/3D43E14DF2</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/50BFAA0308</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5352728293205401633</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/11A6FEB965</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2893287</t>
+    <t>https://kr.iherb.com/me/56CF46DEFE</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5521255210953043594</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/DDB45F957B</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/4733809509478843984</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/5564629723957505221</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/DE08853D78</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/2E58C01E00</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4830483740480572149</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/0CE4DA667B</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/879BC500CC</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/bineemom</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4662541756228739456</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1069351</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2560786</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4693216508008586985</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4641521048330400283</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4829505765211721314</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4746989251286317198</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1455392</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1687790</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/2171A28B0E</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/D9D755C33C</t>
+    <t>https://kr.iherb.com/me/5E1018F52A</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5722311545348904945</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/A42361A154</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4944594736307230379</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5214248545298585268</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5538333290752238365</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/838B3CDA36</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4857682642233727351</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer3281627</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer3195083</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5160013702877692323</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1578012</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/sukkon</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/D58D7C884E</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/4628253412832187335</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/7D887E648C</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/LoveDaniella</t>
+    <t>https://kr.iherb.com/me/F32576537D</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/4619235626127584044</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/F1728B1C92</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1010440</t>
+    <t>https://kr.iherb.com/me/EB29346194</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer2293784</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/0A995E9974</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5521672957395862890</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/518DD9CEFA</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5729953331070101281</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/3BA02E9BDF</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/B0F1716D8C</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4741151084916374437</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/6834ACEB76</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/B3679CDFF5</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1985675</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4646702415267381264</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/49DC38AB14</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5053386049758919277</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/9F15BF49B6</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/D046288B31</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/909EF7ACC8</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4878322837596292903</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5229787419783354675</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4747554548497613253</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5060258133436618327</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer2811649</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer2631646</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1149102</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4845258738105474017</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4922340396648749545</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5125773490896693441</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/3240C73EEC</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5535633676766336453</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/NinaKibe</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/DDB946B160</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Alexandrina</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4715268412211597995</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/FDD7FEE113</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4855191057619266602</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/C656BDE6C8</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5167EF2A64</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Elenka15</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/81F6F59046</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5F9A465A46</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/478337EDDA</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/906635D0F9</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/FBB1F27697</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5487841996069400965</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/6CB19908C8</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Irene123456</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/E44C69CE6C</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/8F6AC5C0B7</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/287ED94DFC</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/575ED07B84</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4810216342306701496</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/E221AF4D2E</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/8D5E9C5914</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/E2776782BE</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/7C558D45A6</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5099092667557831428</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/14818634B4</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/38917679AD</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/IrynaAvanesova</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/C831A1CB9F</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/DB117062D1</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Poplavok</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/6A6BDFCEDB</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5124121100546131366</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5363169272296938754</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/D5B7567F79</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4695087119966514591</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5601736569905646496</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/91DAC87142</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Elenna16</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5711291031197910731</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4654206551674326618</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/tujulapanenamlapan</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/9FD70DA44A</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1385079</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/D2FE39F40F</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5453717954083179563</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5436562981012490161</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1540123</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1721715</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5375768460120292320</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/6464EEB7D9</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4661556699589130437</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5385180634345749141</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5660160280621854338</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5006810056368247346</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/6C8724B36E</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer2867459</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/9274F598D0</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5694229539331486991</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5071997532910612826</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5717062485676835300</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5297458404910227410</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4859303081025050222</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/cattycat</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/102A623C6F</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/ACB8FD4AB3</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5406218415651208966</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/10AFAD5212</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/elllene</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Daniil22</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/CA7454E9A9</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/336E9F0E26</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5550919916531697502</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/3E78D518CF</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/A72B776E1D</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/BF411C7024</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5323148893112480849</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/0008152A0E</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/9C8EF8C217</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/DCF312A376</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Mariyashapochkina</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/9E51873540</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Daryadaryadarya</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/moumoupara</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4836133392993918639</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1017187</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/34DDD1E78D</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/LOTOBAD</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/B4A3BBE4EB</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4885861971642365198</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/2B7E8C5016</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/8712F69563</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5616719310481903094</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/8618909E1F</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/AD97F4A0AE</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4DD83602E6</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/B1237280FE</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/6687E0AD11</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/7CBDA7456F</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/AE9EAE11C7</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/POLOVIKOVA-OKSANA</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/1794350EBC</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Aksana84</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4376A0DB89</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/96299B02C5</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/9BA6AFF701</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4629936658414776390</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/A5947D8967</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/A7F68E83E3</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/A0C2757043</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/13CCF57E54</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/86ADAE6820</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4750658299559369672</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5700962523199081929</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/C3CF043FE6</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5416565138599953576</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5595975020368836446</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/0D3FD36393</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/D9E5A03B6C</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/1757FB3037</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/A3872E3FEC</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1537227</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/194DCB239C</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/43BAE3165A</t>
@@ -472,15 +913,15 @@
     <t>https://kr.iherb.com/me/6D3B2AF1CD</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/NinaKibe</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/26570D6B3F</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/E430BD3618</t>
   </si>
   <si>
+    <t>https://kr.iherb.com/me/SVETAB</t>
+  </si>
+  <si>
     <t>https://kr.iherb.com/me/PavelLashinin</t>
   </si>
   <si>
@@ -490,16 +931,13 @@
     <t>https://kr.iherb.com/me/sunshiny</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/cosmetolog</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/1026A20A25</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/F1D08048A5</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/E4AAEA5DBF</t>
+    <t>https://kr.iherb.com/me/0D84FEC487</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/0CF38483A2</t>
@@ -508,16 +946,13 @@
     <t>https://kr.iherb.com/me/5713155042370946764</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/19AEE31396</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/KRYLOVAL</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/Perebatova</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/4E44C8C7DE</t>
+    <t>https://kr.iherb.com/me/E87A21EAE1</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/7A24897347</t>
@@ -529,22 +964,13 @@
     <t>https://kr.iherb.com/me/D4F2069F9E</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/4690433857316865591</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/F74CA0F2F2</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/SVETAB</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/KristinaLashinina89</t>
+    <t>https://kr.iherb.com/me/409948BBBE</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/5379411636766825089</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/A772B0EB3C</t>
+    <t>https://kr.iherb.com/me/675CC055A2</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/07EB77904A</t>
@@ -571,9 +997,6 @@
     <t>https://kr.iherb.com/me/Reviewer2684220</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/49FC047F9F</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/4090BDF4EA</t>
   </si>
   <si>
@@ -610,9 +1033,6 @@
     <t>https://kr.iherb.com/me/Kurali39</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/34DDD1E78D</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/9A7F70D6BB</t>
   </si>
   <si>
@@ -706,15 +1126,9 @@
     <t>https://kr.iherb.com/me/4836584506107930178</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/5167EF2A64</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/belyinnale</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/5099092667557831428</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/0DB246CCA7</t>
   </si>
   <si>
@@ -736,271 +1150,7 @@
     <t>https://kr.iherb.com/me/170EFDE3C0</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/3C9F2D831F</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/906635D0F9</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/9FD70DA44A</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1385079</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/D2FE39F40F</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5453717954083179563</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5436562981012490161</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1540123</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1721715</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5172750173133657122</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5375768460120292320</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/6464EEB7D9</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4661556699589130437</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5385180634345749141</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5660160280621854338</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5006810056368247346</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/6C8724B36E</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2867459</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/9274F598D0</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5694229539331486991</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5071997532910612826</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5717062485676835300</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5297458404910227410</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4859303081025050222</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/cattycat</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/102A623C6F</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/ACB8FD4AB3</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5406218415651208966</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/10AFAD5212</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/elllene</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Daniil22</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/CA7454E9A9</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/336E9F0E26</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5550919916531697502</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/3E78D518CF</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/A72B776E1D</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/BF411C7024</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5323148893112480849</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/0008152A0E</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/9C8EF8C217</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/DCF312A376</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Mariyashapochkina</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/9E51873540</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Daryadaryadarya</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/moumoupara</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4836133392993918639</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1017187</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/LOTOBAD</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/B4A3BBE4EB</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4885861971642365198</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/2B7E8C5016</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/8712F69563</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5616719310481903094</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/8618909E1F</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/AD97F4A0AE</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4DD83602E6</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/B1237280FE</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/7CBDA7456F</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/AE9EAE11C7</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5639808188727399372</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/C1FBDFBCD8</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/C1307E47AD</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/54FD6BDB38</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5015710635447996497</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/DEEBE100FC</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4737116477177729264</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/96299B02C5</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5629378527615986361</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4629936658414776390</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/rito42</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4859504714883307590</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/F29ADDCA16</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/NadezhdaFromRussia</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/higeoyazi</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/86ADAE6820</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/3F85E9B45E</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/8C56D43D7C</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/E34B3DDAF1</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/C3CF043FE6</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/CD7906098A</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5595975020368836446</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/93177FF3F7</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/IRA-FITNESS</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/1757FB3037</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/misterax</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5172553830008064716</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/A3872E3FEC</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1537227</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/194DCB239C</t>
+    <t>https://kr.iherb.com/me/FA388CC1C0</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/5591218444882659067</t>
@@ -1189,226 +1339,28 @@
     <t>https://kr.iherb.com/me/4787927805187824290</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/876AAD91BB</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/5375421327109926523</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/5008100074485270396</t>
+    <t>https://kr.iherb.com/me/E465A8D6D4</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/Reviewer1572830</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/E88D4A2A14</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/041F5B0075</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/9BB43A6F4D</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/gavkan</t>
+    <t>https://kr.iherb.com/me/4914376836160508727</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/AF62CD8C78</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/A138936F4E</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/0A995E9974</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/518DD9CEFA</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5729953331070101281</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/3BA02E9BDF</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/B0F1716D8C</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4741151084916374437</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/6834ACEB76</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/B3679CDFF5</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1985675</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4646702415267381264</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/49DC38AB14</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5053386049758919277</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/9F15BF49B6</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/D046288B31</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/909EF7ACC8</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4878322837596292903</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5229787419783354675</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4747554548497613253</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5060258133436618327</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2811649</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer1149102</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4845258738105474017</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4922340396648749545</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5125773490896693441</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/3240C73EEC</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5535633676766336453</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/DDB946B160</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Alexandrina</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4715268412211597995</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/FDD7FEE113</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4855191057619266602</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/C656BDE6C8</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Elenka15</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/81F6F59046</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5F9A465A46</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/478337EDDA</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/FBB1F27697</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5487841996069400965</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/6CB19908C8</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Irene123456</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/E44C69CE6C</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/8F6AC5C0B7</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/287ED94DFC</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/575ED07B84</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4810216342306701496</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/E221AF4D2E</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/8D5E9C5914</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/E2776782BE</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/7C558D45A6</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/C12E231A55</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/38917679AD</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/irinaNakraple</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/IrynaAvanesova</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/C831A1CB9F</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Poplavok</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/6A6BDFCEDB</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5124121100546131366</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5363169272296938754</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/D5B7567F79</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4695087119966514591</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5601736569905646496</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/91DAC87142</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Elenna16</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5711291031197910731</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4654206551674326618</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/tujulapanenamlapan</t>
+    <t>https://kr.iherb.com/me/Reviewer2885580</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/jihye86</t>
@@ -1426,61 +1378,64 @@
     <t>https://kr.iherb.com/me/5644436634043825299</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/5275550464520931927</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/5333239289401025679</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/11A6A1190D</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/3D52A0D50B</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/6D55266B8B</t>
+    <t>https://kr.iherb.com/me/5BECCB0765</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5007336337423589582</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4916538657156877599</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/44767B6843</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/5072644682403169503</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2401821</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5460868385458209744</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/2D3A333601</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/CF9BFB7CFF</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2421059</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5465913485559300802</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/CAEDC76E78</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5695494495174167348</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5503106761026828153</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/4696107599772625712</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/5020599692447751805</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/Reviewer2943261</t>
+    <t>https://kr.iherb.com/me/5349507AF4</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/58DB3D829F</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5729560240326649935</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5231409712570625313</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5249373932342300626</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/nrz6jihye</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/1FBEB32C03</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/54166A7AAD</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5002132635992836081</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/AB750CC84E</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/4885849969319061387</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/1C6F7E4842</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5230858844453758911</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/067A9E5856</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/8E5A2148F9</t>
@@ -1675,33 +1630,33 @@
     <t>https://kr.iherb.com/me/5259595230612281762</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/7FD2D3BCEB</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/1BCE00507E</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/77AD43691C</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/234BDAD745</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/00769CF605</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/3F9DFAC839</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/065BC74512</t>
+    <t>https://kr.iherb.com/me/49B0573FFA</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/89C79D50D8</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/22267C8ED5</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/3671C1E41F</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/162AB91A76</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/A83C56E1E3</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/5754925295346181739</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/1070841369</t>
   </si>
   <si>
     <t>https://kr.iherb.com/me/4939941500855112115</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/7001168573</t>
-  </si>
-  <si>
     <t>https://kr.iherb.com/me/Reviewer1229339</t>
   </si>
   <si>
@@ -1738,13 +1693,10 @@
     <t>https://kr.iherb.com/me/5614149106978046441</t>
   </si>
   <si>
-    <t>https://kr.iherb.com/me/4790040468155740968</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/0479329787</t>
-  </si>
-  <si>
-    <t>https://kr.iherb.com/me/998303BB49</t>
+    <t>https://kr.iherb.com/me/915515DB69</t>
+  </si>
+  <si>
+    <t>https://kr.iherb.com/me/73E7A11C51</t>
   </si>
 </sst>
 </file>
@@ -2115,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C576"/>
+  <dimension ref="A1:C560"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2148,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2907,7 +2859,7 @@
         <v>72</v>
       </c>
       <c r="C72">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3006,12 +2958,12 @@
         <v>81</v>
       </c>
       <c r="C81">
-        <v>113</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>82</v>
@@ -3022,18 +2974,18 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C83">
-        <v>232</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>84</v>
@@ -3044,18 +2996,18 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C85">
-        <v>275</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>86</v>
@@ -3066,7 +3018,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>87</v>
@@ -3077,18 +3029,18 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C88">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>89</v>
@@ -3099,7 +3051,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>90</v>
@@ -3110,68 +3062,68 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C91">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C92">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C93">
-        <v>11</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C94">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C95">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C96">
-        <v>43</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3182,67 +3134,67 @@
         <v>97</v>
       </c>
       <c r="C97">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C98">
-        <v>102</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C99">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C100">
-        <v>11</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C101">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C102">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>103</v>
@@ -3253,4341 +3205,4341 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C104">
-        <v>36</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C105">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C106">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C107">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C108">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C109">
-        <v>62</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C110">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C111">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C112">
-        <v>100</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C113">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C114">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C115">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C116">
-        <v>363</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C117">
-        <v>363</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C118">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C119">
-        <v>109</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C120">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C121">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C122">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C123">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C124">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C125">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C126">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C127">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C128">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C129">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C130">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C131">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C132">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C133">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C134">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C135">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C136">
-        <v>256</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C137">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C138">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C139">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C140">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C141">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C142">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C143">
-        <v>799</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C144">
-        <v>369</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C145">
-        <v>436</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C146">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C147">
-        <v>7259</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C148">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C149">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C150">
-        <v>65</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C151">
-        <v>10</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C152">
-        <v>103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C153">
-        <v>100</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C154">
-        <v>40</v>
+        <v>531</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C155">
-        <v>11</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C156">
-        <v>1396</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C157">
-        <v>3205</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C158">
-        <v>284</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C159">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C160">
-        <v>3063</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C161">
-        <v>51</v>
+        <v>238</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C162">
-        <v>11</v>
+        <v>253</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C163">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C164">
-        <v>600</v>
+        <v>8050</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C165">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C166">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C167">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C168">
-        <v>1164</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C169">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C170">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C171">
-        <v>27</v>
+        <v>376</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C172">
-        <v>74</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C173">
-        <v>103</v>
+        <v>291</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C174">
-        <v>1582</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C175">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C176">
-        <v>212</v>
+        <v>72</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C177">
-        <v>4099</v>
+        <v>420</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C178">
-        <v>353</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C180">
-        <v>252</v>
+        <v>39283</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C181">
-        <v>278</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1">
-        <v>483</v>
+        <v>549</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C182">
-        <v>162</v>
+        <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C183">
-        <v>79</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>488</v>
+        <v>558</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C184">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>490</v>
+        <v>560</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C185">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C186">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C187">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C188">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C189">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>502</v>
+        <v>588</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C190">
-        <v>37</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>503</v>
+        <v>590</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C191">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C192">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>510</v>
+        <v>593</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C193">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>513</v>
+        <v>598</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C194">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>514</v>
+        <v>600</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C195">
-        <v>184</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>516</v>
+        <v>604</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C196">
-        <v>242</v>
+        <v>98</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>517</v>
+        <v>607</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C197">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>518</v>
+        <v>609</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C198">
-        <v>174</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>519</v>
+        <v>610</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C199">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>520</v>
+        <v>618</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C200">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>522</v>
+        <v>620</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C201">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>523</v>
+        <v>627</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C202">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1">
-        <v>530</v>
+        <v>628</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C203">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1">
-        <v>532</v>
+        <v>630</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C204">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1">
-        <v>533</v>
+        <v>631</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C205">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1">
-        <v>534</v>
+        <v>638</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C206">
-        <v>132</v>
+        <v>19</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>535</v>
+        <v>640</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C207">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>537</v>
+        <v>644</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C208">
-        <v>681</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>538</v>
+        <v>648</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C209">
-        <v>38</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>540</v>
+        <v>649</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C210">
-        <v>96</v>
+        <v>239</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C211">
-        <v>40</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>544</v>
+        <v>654</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C212">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>547</v>
+        <v>658</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C213">
-        <v>150</v>
+        <v>24</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>548</v>
+        <v>660</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C214">
-        <v>324</v>
+        <v>83</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>550</v>
+        <v>664</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C215">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>552</v>
+        <v>668</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C216">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>553</v>
+        <v>669</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C217">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>554</v>
+        <v>670</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C218">
-        <v>275</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>557</v>
+        <v>671</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C219">
-        <v>421</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>558</v>
+        <v>674</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C220">
-        <v>46</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>560</v>
+        <v>677</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C221">
-        <v>27</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>564</v>
+        <v>678</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C222">
-        <v>295</v>
+        <v>42</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>567</v>
+        <v>680</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C223">
-        <v>1380</v>
+        <v>202</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>568</v>
+        <v>683</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C224">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>570</v>
+        <v>684</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C225">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>571</v>
+        <v>688</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C226">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1">
-        <v>572</v>
+        <v>694</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C227">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1">
-        <v>573</v>
+        <v>695</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C228">
-        <v>147</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1">
-        <v>574</v>
+        <v>697</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C229">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1">
-        <v>575</v>
+        <v>698</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C230">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1">
-        <v>576</v>
+        <v>700</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C231">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>577</v>
+        <v>704</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C232">
-        <v>26</v>
+        <v>200</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>578</v>
+        <v>707</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C233">
-        <v>154</v>
+        <v>44</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>579</v>
+        <v>708</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C234">
-        <v>298</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>580</v>
+        <v>710</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C235">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>582</v>
+        <v>713</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C236">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>584</v>
+        <v>714</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C237">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>588</v>
+        <v>717</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C238">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>594</v>
+        <v>718</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C239">
-        <v>262</v>
+        <v>104</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>597</v>
+        <v>720</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C240">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>598</v>
+        <v>721</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C241">
-        <v>328</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>600</v>
+        <v>723</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C242">
-        <v>23</v>
+        <v>622</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>604</v>
+        <v>724</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C243">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>607</v>
+        <v>725</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C244">
-        <v>30</v>
+        <v>116</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>609</v>
+        <v>727</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C245">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>610</v>
+        <v>728</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C246">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>618</v>
+        <v>729</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C247">
-        <v>121</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>620</v>
+        <v>730</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C248">
-        <v>42</v>
+        <v>122</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>624</v>
+        <v>731</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C249">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>627</v>
+        <v>732</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C250">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="1">
-        <v>628</v>
+        <v>733</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C251">
-        <v>11</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="1">
-        <v>630</v>
+        <v>734</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C252">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="1">
-        <v>631</v>
+        <v>737</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C253">
-        <v>21</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="1">
-        <v>638</v>
+        <v>744</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>254</v>
       </c>
       <c r="C254">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="1">
-        <v>640</v>
+        <v>748</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C255">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>644</v>
+        <v>750</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C256">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>648</v>
+        <v>754</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C257">
-        <v>278</v>
+        <v>45</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>649</v>
+        <v>757</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>258</v>
       </c>
       <c r="C258">
-        <v>239</v>
+        <v>39</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>650</v>
+        <v>758</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C259">
-        <v>229</v>
+        <v>26</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>654</v>
+        <v>760</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>260</v>
       </c>
       <c r="C260">
-        <v>118</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>658</v>
+        <v>763</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C261">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>660</v>
+        <v>764</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>262</v>
       </c>
       <c r="C262">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>664</v>
+        <v>768</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>263</v>
       </c>
       <c r="C263">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>668</v>
+        <v>774</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>264</v>
       </c>
       <c r="C264">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>669</v>
+        <v>775</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C265">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>670</v>
+        <v>777</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C266">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>671</v>
+        <v>784</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C267">
-        <v>12</v>
+        <v>188</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>674</v>
+        <v>787</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C268">
-        <v>303</v>
+        <v>828</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>677</v>
+        <v>788</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C269">
-        <v>1871</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>678</v>
+        <v>790</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C270">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>680</v>
+        <v>793</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>271</v>
       </c>
       <c r="C271">
-        <v>202</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>683</v>
+        <v>794</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C272">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>684</v>
+        <v>797</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C273">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>688</v>
+        <v>798</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C274">
-        <v>36</v>
+        <v>243</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="1">
-        <v>694</v>
+        <v>799</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C275">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="1">
-        <v>695</v>
+        <v>800</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C276">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="1">
-        <v>697</v>
+        <v>801</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C277">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="1">
-        <v>698</v>
+        <v>803</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C278">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="1">
-        <v>700</v>
+        <v>804</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C279">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>704</v>
+        <v>808</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C280">
-        <v>200</v>
+        <v>86</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>707</v>
+        <v>810</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C281">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>708</v>
+        <v>814</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C282">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>710</v>
+        <v>818</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C283">
-        <v>110</v>
+        <v>256</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>713</v>
+        <v>820</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C284">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>714</v>
+        <v>824</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C285">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>717</v>
+        <v>828</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C286">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C287">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>721</v>
+        <v>831</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C288">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>723</v>
+        <v>832</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>289</v>
       </c>
       <c r="C289">
-        <v>620</v>
+        <v>115</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>724</v>
+        <v>833</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>290</v>
       </c>
       <c r="C290">
-        <v>108</v>
+        <v>801</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>725</v>
+        <v>834</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>291</v>
       </c>
       <c r="C291">
-        <v>116</v>
+        <v>375</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>727</v>
+        <v>835</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C292">
-        <v>20</v>
+        <v>455</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>728</v>
+        <v>836</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>293</v>
       </c>
       <c r="C293">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>729</v>
+        <v>837</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C294">
-        <v>17</v>
+        <v>7292</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>730</v>
+        <v>838</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>295</v>
       </c>
       <c r="C295">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>731</v>
+        <v>839</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C296">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>732</v>
+        <v>840</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C297">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>733</v>
+        <v>841</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C298">
-        <v>3435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="1">
-        <v>734</v>
+        <v>844</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C299">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="1">
-        <v>737</v>
+        <v>845</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C300">
-        <v>1165</v>
+        <v>40</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="1">
-        <v>738</v>
+        <v>847</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C301">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="1">
-        <v>740</v>
+        <v>848</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>302</v>
       </c>
       <c r="C302">
-        <v>14</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="1">
-        <v>744</v>
+        <v>849</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C303">
-        <v>44</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>748</v>
+        <v>850</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C304">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>750</v>
+        <v>853</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C305">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>753</v>
+        <v>854</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>306</v>
       </c>
       <c r="C306">
-        <v>37</v>
+        <v>284</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>754</v>
+        <v>856</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>307</v>
       </c>
       <c r="C307">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>757</v>
+        <v>857</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>308</v>
       </c>
       <c r="C308">
-        <v>14</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>758</v>
+        <v>858</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>309</v>
       </c>
       <c r="C309">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>760</v>
+        <v>860</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>310</v>
       </c>
       <c r="C310">
-        <v>12</v>
+        <v>189</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>764</v>
+        <v>861</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C311">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>770</v>
+        <v>863</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>312</v>
       </c>
       <c r="C312">
-        <v>100</v>
+        <v>713</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>771</v>
+        <v>864</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>313</v>
       </c>
       <c r="C313">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>773</v>
+        <v>865</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>314</v>
       </c>
       <c r="C314">
-        <v>116</v>
+        <v>59</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>778</v>
+        <v>868</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C315">
-        <v>139</v>
+        <v>33</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>779</v>
+        <v>870</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C316">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>780</v>
+        <v>874</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>317</v>
       </c>
       <c r="C317">
-        <v>188</v>
+        <v>74</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>783</v>
+        <v>875</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C318">
-        <v>827</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>784</v>
+        <v>877</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C319">
-        <v>12</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>787</v>
+        <v>878</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C320">
-        <v>10</v>
+        <v>354</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>788</v>
+        <v>879</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>321</v>
       </c>
       <c r="C321">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>790</v>
+        <v>880</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>322</v>
       </c>
       <c r="C322">
-        <v>124</v>
+        <v>252</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="1">
-        <v>793</v>
+        <v>882</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C323">
-        <v>47</v>
+        <v>278</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="1">
-        <v>794</v>
+        <v>883</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>324</v>
       </c>
       <c r="C324">
-        <v>243</v>
+        <v>163</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="1">
-        <v>795</v>
+        <v>884</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C325">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>796</v>
+        <v>888</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C326">
-        <v>853</v>
+        <v>54</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="1">
-        <v>797</v>
+        <v>894</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>327</v>
       </c>
       <c r="C327">
-        <v>366</v>
+        <v>118</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>798</v>
+        <v>897</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C328">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>3</v>
+        <v>898</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C329">
-        <v>102</v>
+        <v>45</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>4</v>
+        <v>900</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C330">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>14</v>
+        <v>902</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C331">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>18</v>
+        <v>903</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C332">
-        <v>43</v>
+        <v>124</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>20</v>
+        <v>908</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C333">
-        <v>187</v>
+        <v>68</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>23</v>
+        <v>910</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C334">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>25</v>
+        <v>913</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C335">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>27</v>
+        <v>914</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C336">
-        <v>495</v>
+        <v>184</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>28</v>
+        <v>916</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C337">
-        <v>109</v>
+        <v>242</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>29</v>
+        <v>917</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>338</v>
       </c>
       <c r="C338">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>30</v>
+        <v>919</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>339</v>
       </c>
       <c r="C339">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="1">
-        <v>40</v>
+        <v>920</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C340">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>41</v>
+        <v>922</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C341">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="1">
-        <v>42</v>
+        <v>923</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C342">
-        <v>219</v>
+        <v>43</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="1">
-        <v>43</v>
+        <v>930</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C343">
-        <v>1015</v>
+        <v>61</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="1">
-        <v>44</v>
+        <v>932</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C344">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="1">
-        <v>48</v>
+        <v>933</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C345">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="1">
-        <v>50</v>
+        <v>934</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C346">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="1">
-        <v>53</v>
+        <v>935</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C347">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="1">
-        <v>54</v>
+        <v>937</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C348">
-        <v>163</v>
+        <v>684</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1">
-        <v>55</v>
+        <v>938</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C349">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="1">
-        <v>57</v>
+        <v>940</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>350</v>
       </c>
       <c r="C350">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="1">
-        <v>58</v>
+        <v>943</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>351</v>
       </c>
       <c r="C351">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1">
-        <v>60</v>
+        <v>944</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C352">
-        <v>181</v>
+        <v>69</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="1">
-        <v>61</v>
+        <v>947</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>353</v>
       </c>
       <c r="C353">
-        <v>65</v>
+        <v>153</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" s="1">
-        <v>63</v>
+        <v>948</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>354</v>
       </c>
       <c r="C354">
-        <v>165</v>
+        <v>324</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" s="1">
-        <v>64</v>
+        <v>950</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>355</v>
       </c>
       <c r="C355">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="1">
-        <v>68</v>
+        <v>952</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>356</v>
       </c>
       <c r="C356">
-        <v>67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="1">
-        <v>70</v>
+        <v>953</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>357</v>
       </c>
       <c r="C357">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="1">
-        <v>74</v>
+        <v>954</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>358</v>
       </c>
       <c r="C358">
-        <v>36</v>
+        <v>275</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="1">
-        <v>83</v>
+        <v>957</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>359</v>
       </c>
       <c r="C359">
-        <v>96</v>
+        <v>421</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="1">
-        <v>90</v>
+        <v>958</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>360</v>
       </c>
       <c r="C360">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="1">
-        <v>94</v>
+        <v>960</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>361</v>
       </c>
       <c r="C361">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="1">
-        <v>98</v>
+        <v>964</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C362">
-        <v>27</v>
+        <v>295</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1">
-        <v>100</v>
+        <v>967</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>363</v>
       </c>
       <c r="C363">
-        <v>48</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="1">
-        <v>103</v>
+        <v>968</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>364</v>
       </c>
       <c r="C364">
-        <v>11</v>
+        <v>76</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="1">
-        <v>104</v>
+        <v>970</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>365</v>
       </c>
       <c r="C365">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="1">
-        <v>108</v>
+        <v>971</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>366</v>
       </c>
       <c r="C366">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="1">
-        <v>110</v>
+        <v>972</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C367">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="1">
-        <v>113</v>
+        <v>973</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>368</v>
       </c>
       <c r="C368">
-        <v>32</v>
+        <v>149</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="1">
-        <v>114</v>
+        <v>974</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>369</v>
       </c>
       <c r="C369">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="1">
-        <v>117</v>
+        <v>976</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>370</v>
       </c>
       <c r="C370">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1">
-        <v>118</v>
+        <v>978</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>371</v>
       </c>
       <c r="C371">
-        <v>46</v>
+        <v>156</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="1">
-        <v>120</v>
+        <v>979</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>372</v>
       </c>
       <c r="C372">
-        <v>39</v>
+        <v>300</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="1">
-        <v>121</v>
+        <v>980</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>373</v>
       </c>
       <c r="C373">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="1">
-        <v>128</v>
+        <v>982</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C374">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="1">
-        <v>130</v>
+        <v>984</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>375</v>
       </c>
       <c r="C375">
-        <v>80</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="1">
-        <v>134</v>
+        <v>988</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C376">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="1">
-        <v>137</v>
+        <v>994</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C377">
-        <v>21</v>
+        <v>262</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="1">
-        <v>138</v>
+        <v>998</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>378</v>
       </c>
       <c r="C378">
-        <v>30</v>
+        <v>329</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="1">
-        <v>140</v>
+        <v>1003</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>379</v>
       </c>
       <c r="C379">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>144</v>
+        <v>1004</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>380</v>
       </c>
       <c r="C380">
-        <v>218</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="1">
-        <v>147</v>
+        <v>1014</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>381</v>
       </c>
       <c r="C381">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1">
-        <v>148</v>
+        <v>1018</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C382">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="1">
-        <v>150</v>
+        <v>1020</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>383</v>
       </c>
       <c r="C383">
-        <v>107</v>
+        <v>187</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="1">
-        <v>153</v>
+        <v>1023</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C384">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="1">
-        <v>154</v>
+        <v>1025</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>385</v>
       </c>
       <c r="C385">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="1">
-        <v>158</v>
+        <v>1027</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>386</v>
       </c>
       <c r="C386">
-        <v>413</v>
+        <v>498</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="1">
-        <v>160</v>
+        <v>1028</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>387</v>
       </c>
       <c r="C387">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="1">
-        <v>163</v>
+        <v>1029</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>388</v>
       </c>
       <c r="C388">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="1">
-        <v>164</v>
+        <v>1030</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>389</v>
       </c>
       <c r="C389">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="1">
-        <v>168</v>
+        <v>1040</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>390</v>
       </c>
       <c r="C390">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="1">
-        <v>172</v>
+        <v>1041</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>391</v>
       </c>
       <c r="C391">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="1">
-        <v>173</v>
+        <v>1042</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>392</v>
       </c>
       <c r="C392">
-        <v>17</v>
+        <v>229</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="1">
-        <v>177</v>
+        <v>1043</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>393</v>
       </c>
       <c r="C393">
-        <v>27</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="1">
-        <v>180</v>
+        <v>1044</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>394</v>
       </c>
       <c r="C394">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1">
-        <v>184</v>
+        <v>1048</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>395</v>
       </c>
       <c r="C395">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="1">
-        <v>190</v>
+        <v>1050</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>396</v>
       </c>
       <c r="C396">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="1">
-        <v>193</v>
+        <v>1053</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C397">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="1">
-        <v>198</v>
+        <v>1054</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>398</v>
       </c>
       <c r="C398">
-        <v>17</v>
+        <v>163</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1">
-        <v>200</v>
+        <v>1055</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>399</v>
       </c>
       <c r="C399">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1">
-        <v>204</v>
+        <v>1057</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>400</v>
       </c>
       <c r="C400">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="1">
-        <v>205</v>
+        <v>1058</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>401</v>
       </c>
       <c r="C401">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="1">
-        <v>207</v>
+        <v>1060</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>402</v>
       </c>
       <c r="C402">
-        <v>30</v>
+        <v>181</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="1">
-        <v>210</v>
+        <v>1061</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>403</v>
       </c>
       <c r="C403">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1">
-        <v>212</v>
+        <v>1063</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>404</v>
       </c>
       <c r="C404">
-        <v>25</v>
+        <v>165</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="1">
-        <v>224</v>
+        <v>1064</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>405</v>
       </c>
       <c r="C405">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="1">
-        <v>234</v>
+        <v>1068</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>406</v>
       </c>
       <c r="C406">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="1">
-        <v>238</v>
+        <v>1070</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>407</v>
       </c>
       <c r="C407">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" s="1">
-        <v>240</v>
+        <v>1074</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>408</v>
       </c>
       <c r="C408">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" s="1">
-        <v>244</v>
+        <v>1083</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>409</v>
       </c>
       <c r="C409">
-        <v>177</v>
+        <v>98</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="1">
-        <v>247</v>
+        <v>1090</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>410</v>
       </c>
       <c r="C410">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="1">
-        <v>248</v>
+        <v>1094</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>411</v>
       </c>
       <c r="C411">
-        <v>142</v>
+        <v>35</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="1">
-        <v>250</v>
+        <v>1098</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>412</v>
       </c>
       <c r="C412">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="1">
-        <v>251</v>
+        <v>1100</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>413</v>
       </c>
       <c r="C413">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="1">
-        <v>254</v>
+        <v>1103</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>414</v>
       </c>
       <c r="C414">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="1">
-        <v>260</v>
+        <v>1104</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C415">
-        <v>108</v>
+        <v>23</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="1">
-        <v>264</v>
+        <v>1108</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>416</v>
       </c>
       <c r="C416">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="1">
-        <v>270</v>
+        <v>1110</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>417</v>
       </c>
       <c r="C417">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="1">
-        <v>273</v>
+        <v>1113</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>418</v>
       </c>
       <c r="C418">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="1">
-        <v>278</v>
+        <v>1114</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>419</v>
       </c>
       <c r="C419">
-        <v>253</v>
+        <v>68</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="1">
-        <v>280</v>
+        <v>1117</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>420</v>
       </c>
       <c r="C420">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="1">
-        <v>284</v>
+        <v>1118</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>421</v>
       </c>
       <c r="C421">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="1">
-        <v>287</v>
+        <v>1120</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>422</v>
       </c>
       <c r="C422">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="1">
-        <v>288</v>
+        <v>1121</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>423</v>
       </c>
       <c r="C423">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="1">
-        <v>290</v>
+        <v>1128</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>424</v>
       </c>
       <c r="C424">
-        <v>136</v>
+        <v>46</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="1">
-        <v>293</v>
+        <v>1130</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>425</v>
       </c>
       <c r="C425">
-        <v>1098</v>
+        <v>80</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="1">
-        <v>294</v>
+        <v>1134</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>426</v>
       </c>
       <c r="C426">
-        <v>1093</v>
+        <v>41</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="1">
-        <v>295</v>
+        <v>1137</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>427</v>
       </c>
       <c r="C427">
-        <v>531</v>
+        <v>21</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="1">
-        <v>297</v>
+        <v>1138</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>428</v>
       </c>
       <c r="C428">
-        <v>5899</v>
+        <v>30</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="1">
-        <v>298</v>
+        <v>1140</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>429</v>
       </c>
       <c r="C429">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="1">
-        <v>299</v>
+        <v>1144</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>430</v>
       </c>
       <c r="C430">
-        <v>10</v>
+        <v>218</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="1">
-        <v>301</v>
+        <v>1147</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>431</v>
       </c>
       <c r="C431">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="1">
-        <v>303</v>
+        <v>1148</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>432</v>
       </c>
       <c r="C432">
-        <v>2822</v>
+        <v>83</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="1">
-        <v>304</v>
+        <v>1150</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>433</v>
       </c>
       <c r="C433">
-        <v>248</v>
+        <v>107</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="1">
-        <v>305</v>
+        <v>1153</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>434</v>
       </c>
       <c r="C434">
-        <v>242</v>
+        <v>38</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="1">
-        <v>307</v>
+        <v>1154</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>435</v>
       </c>
       <c r="C435">
-        <v>7908</v>
+        <v>45</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="1">
-        <v>308</v>
+        <v>1158</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>436</v>
       </c>
       <c r="C436">
-        <v>21</v>
+        <v>425</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="1">
-        <v>310</v>
+        <v>1160</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>437</v>
       </c>
       <c r="C437">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="1">
-        <v>313</v>
+        <v>1163</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>438</v>
       </c>
       <c r="C438">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="1">
-        <v>318</v>
+        <v>1164</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>439</v>
       </c>
       <c r="C439">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="1">
-        <v>324</v>
+        <v>1168</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>440</v>
       </c>
       <c r="C440">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="1">
-        <v>328</v>
+        <v>1172</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>441</v>
       </c>
       <c r="C441">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="1">
-        <v>330</v>
+        <v>1173</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>442</v>
       </c>
       <c r="C442">
-        <v>376</v>
+        <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="1">
-        <v>332</v>
+        <v>1178</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>443</v>
       </c>
       <c r="C443">
-        <v>220</v>
+        <v>284</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="1">
-        <v>333</v>
+        <v>1179</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>444</v>
       </c>
       <c r="C444">
-        <v>291</v>
+        <v>35</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="1">
-        <v>334</v>
+        <v>1180</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>445</v>
       </c>
       <c r="C445">
-        <v>181</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="1">
-        <v>337</v>
+        <v>1194</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>446</v>
       </c>
       <c r="C446">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="1">
-        <v>338</v>
+        <v>1197</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>447</v>
       </c>
       <c r="C447">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1">
-        <v>340</v>
+        <v>1198</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C448">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1">
-        <v>343</v>
+        <v>1200</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>449</v>
       </c>
       <c r="C449">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="1">
-        <v>345</v>
+        <v>1201</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>450</v>
       </c>
       <c r="C450">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="1">
-        <v>347</v>
+        <v>1203</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>451</v>
       </c>
       <c r="C451">
-        <v>3612</v>
+        <v>14</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="1">
-        <v>348</v>
+        <v>1210</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C452">
-        <v>224</v>
+        <v>22</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="1">
-        <v>350</v>
+        <v>1214</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>453</v>
       </c>
       <c r="C453">
-        <v>219</v>
+        <v>45</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="1">
-        <v>358</v>
+        <v>1218</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>454</v>
       </c>
       <c r="C454">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="1">
-        <v>360</v>
+        <v>1219</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>455</v>
       </c>
       <c r="C455">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="1">
-        <v>370</v>
+        <v>1220</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>456</v>
       </c>
       <c r="C456">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="1">
-        <v>373</v>
+        <v>1224</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>457</v>
       </c>
       <c r="C457">
-        <v>11</v>
+        <v>113</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="1">
-        <v>374</v>
+        <v>1228</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>458</v>
       </c>
       <c r="C458">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="1">
-        <v>384</v>
+        <v>1229</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>459</v>
       </c>
       <c r="C459">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="1">
-        <v>388</v>
+        <v>1230</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>460</v>
       </c>
       <c r="C460">
-        <v>202</v>
+        <v>68</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1">
-        <v>390</v>
+        <v>1238</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>461</v>
       </c>
       <c r="C461">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="1">
-        <v>392</v>
+        <v>1240</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>462</v>
       </c>
       <c r="C462">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="1">
-        <v>393</v>
+        <v>1244</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>463</v>
       </c>
       <c r="C463">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="1">
-        <v>398</v>
+        <v>1248</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>464</v>
       </c>
       <c r="C464">
-        <v>42</v>
+        <v>73</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1">
-        <v>400</v>
+        <v>1250</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>465</v>
       </c>
       <c r="C465">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="1">
-        <v>401</v>
+        <v>1254</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>466</v>
       </c>
       <c r="C466">
-        <v>10</v>
+        <v>123</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="1">
-        <v>403</v>
+        <v>1258</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>467</v>
       </c>
       <c r="C467">
-        <v>14</v>
+        <v>131</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="1">
-        <v>410</v>
+        <v>1260</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>468</v>
       </c>
       <c r="C468">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="1">
-        <v>414</v>
+        <v>1264</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>469</v>
       </c>
       <c r="C469">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" s="1">
-        <v>418</v>
+        <v>1268</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>470</v>
       </c>
       <c r="C470">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="1">
-        <v>419</v>
+        <v>1274</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>471</v>
       </c>
       <c r="C471">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="1">
-        <v>420</v>
+        <v>1280</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>472</v>
       </c>
       <c r="C472">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="1">
-        <v>424</v>
+        <v>1284</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>473</v>
       </c>
       <c r="C473">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="1">
-        <v>428</v>
+        <v>1288</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>474</v>
       </c>
       <c r="C474">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="1">
-        <v>430</v>
+        <v>1290</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>475</v>
       </c>
       <c r="C475">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="1">
-        <v>434</v>
+        <v>1294</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>476</v>
       </c>
       <c r="C476">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="1">
-        <v>440</v>
+        <v>1298</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>477</v>
       </c>
       <c r="C477">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="1">
-        <v>444</v>
+        <v>1300</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>478</v>
       </c>
       <c r="C478">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="1">
-        <v>448</v>
+        <v>1304</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>479</v>
       </c>
       <c r="C479">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="1">
-        <v>450</v>
+        <v>1307</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>480</v>
       </c>
       <c r="C480">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="1">
-        <v>460</v>
+        <v>1308</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>481</v>
       </c>
       <c r="C481">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" s="1">
-        <v>464</v>
+        <v>1310</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>482</v>
       </c>
       <c r="C482">
-        <v>27</v>
+        <v>104</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1">
-        <v>468</v>
+        <v>1314</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>483</v>
       </c>
       <c r="C483">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" s="1">
-        <v>470</v>
+        <v>1318</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>484</v>
       </c>
       <c r="C484">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1">
-        <v>473</v>
+        <v>1320</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>485</v>
       </c>
       <c r="C485">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="1">
-        <v>474</v>
+        <v>1324</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>486</v>
       </c>
       <c r="C486">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="1">
-        <v>478</v>
+        <v>1328</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>487</v>
       </c>
       <c r="C487">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" s="1">
-        <v>484</v>
+        <v>1330</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>488</v>
       </c>
       <c r="C488">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" s="1">
-        <v>488</v>
+        <v>1338</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>489</v>
       </c>
       <c r="C489">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" s="1">
-        <v>490</v>
+        <v>1340</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>490</v>
       </c>
       <c r="C490">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" s="1">
-        <v>494</v>
+        <v>1344</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>491</v>
       </c>
       <c r="C491">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" s="1">
-        <v>498</v>
+        <v>1348</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>492</v>
       </c>
       <c r="C492">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" s="1">
-        <v>500</v>
+        <v>1350</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>493</v>
       </c>
       <c r="C493">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" s="1">
-        <v>504</v>
+        <v>1353</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>494</v>
       </c>
       <c r="C494">
-        <v>94</v>
+        <v>11</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" s="1">
-        <v>507</v>
+        <v>1354</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>495</v>
       </c>
       <c r="C495">
-        <v>67</v>
+        <v>143</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" s="1">
-        <v>508</v>
+        <v>1357</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>496</v>
       </c>
       <c r="C496">
-        <v>66</v>
+        <v>309</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" s="1">
-        <v>510</v>
+        <v>1364</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>497</v>
       </c>
       <c r="C497">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" s="1">
-        <v>514</v>
+        <v>1367</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>498</v>
@@ -7598,370 +7550,370 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1">
-        <v>518</v>
+        <v>1368</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>499</v>
       </c>
       <c r="C499">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1">
-        <v>520</v>
+        <v>1370</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>500</v>
       </c>
       <c r="C500">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" s="1">
-        <v>524</v>
+        <v>1374</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>501</v>
       </c>
       <c r="C501">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" s="1">
-        <v>528</v>
+        <v>1378</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>502</v>
       </c>
       <c r="C502">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" s="1">
-        <v>530</v>
+        <v>1380</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>503</v>
       </c>
       <c r="C503">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" s="1">
-        <v>538</v>
+        <v>1384</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>504</v>
       </c>
       <c r="C504">
-        <v>22</v>
+        <v>123</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" s="1">
-        <v>540</v>
+        <v>1398</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>505</v>
       </c>
       <c r="C505">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" s="1">
-        <v>544</v>
+        <v>1400</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>506</v>
       </c>
       <c r="C506">
-        <v>90</v>
+        <v>218</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" s="1">
-        <v>548</v>
+        <v>1401</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>507</v>
       </c>
       <c r="C507">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" s="1">
-        <v>550</v>
+        <v>1408</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>508</v>
       </c>
       <c r="C508">
-        <v>10</v>
+        <v>108</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" s="1">
-        <v>553</v>
+        <v>1409</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>509</v>
       </c>
       <c r="C509">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" s="1">
-        <v>554</v>
+        <v>1414</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C510">
-        <v>143</v>
+        <v>54</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" s="1">
-        <v>557</v>
+        <v>1418</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>511</v>
       </c>
       <c r="C511">
-        <v>309</v>
+        <v>120</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1">
-        <v>564</v>
+        <v>1420</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>512</v>
       </c>
       <c r="C512">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" s="1">
-        <v>567</v>
+        <v>1427</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>513</v>
       </c>
       <c r="C513">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" s="1">
-        <v>568</v>
+        <v>1434</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>514</v>
       </c>
       <c r="C514">
-        <v>13</v>
+        <v>355</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" s="1">
-        <v>570</v>
+        <v>1441</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>515</v>
       </c>
       <c r="C515">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" s="1">
-        <v>574</v>
+        <v>1443</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>516</v>
       </c>
       <c r="C516">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" s="1">
-        <v>578</v>
+        <v>1444</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>517</v>
       </c>
       <c r="C517">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1">
-        <v>580</v>
+        <v>1448</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>518</v>
       </c>
       <c r="C518">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="1">
-        <v>584</v>
+        <v>1460</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>519</v>
       </c>
       <c r="C519">
-        <v>123</v>
+        <v>26</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="1">
-        <v>598</v>
+        <v>1468</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>520</v>
       </c>
       <c r="C520">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" s="1">
-        <v>600</v>
+        <v>1470</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>521</v>
       </c>
       <c r="C521">
-        <v>218</v>
+        <v>97</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1">
-        <v>601</v>
+        <v>1474</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>522</v>
       </c>
       <c r="C522">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="A523" s="1">
-        <v>608</v>
+        <v>1477</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>523</v>
       </c>
       <c r="C523">
-        <v>108</v>
+        <v>17</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="A524" s="1">
-        <v>609</v>
+        <v>1478</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>524</v>
       </c>
       <c r="C524">
-        <v>41</v>
+        <v>158</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="A525" s="1">
-        <v>614</v>
+        <v>1480</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>525</v>
       </c>
       <c r="C525">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="1">
-        <v>618</v>
+        <v>1484</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>526</v>
       </c>
       <c r="C526">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="1">
-        <v>620</v>
+        <v>1488</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>527</v>
       </c>
       <c r="C527">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="A528" s="1">
-        <v>627</v>
+        <v>1490</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>528</v>
       </c>
       <c r="C528">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="A529" s="1">
-        <v>634</v>
+        <v>1491</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>529</v>
       </c>
       <c r="C529">
-        <v>355</v>
+        <v>24</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="A530" s="1">
-        <v>641</v>
+        <v>1498</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>530</v>
       </c>
       <c r="C530">
-        <v>97</v>
+        <v>412</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="A531" s="1">
-        <v>643</v>
+        <v>1499</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>531</v>
       </c>
       <c r="C531">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="A532" s="1">
-        <v>644</v>
+        <v>1504</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>532</v>
@@ -7972,486 +7924,310 @@
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="1">
-        <v>648</v>
+        <v>1507</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>533</v>
       </c>
       <c r="C533">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="1">
-        <v>660</v>
+        <v>1510</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>534</v>
       </c>
       <c r="C534">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="A535" s="1">
-        <v>668</v>
+        <v>1513</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>535</v>
       </c>
       <c r="C535">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="A536" s="1">
-        <v>670</v>
+        <v>1514</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>536</v>
       </c>
       <c r="C536">
-        <v>97</v>
+        <v>62</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="A537" s="1">
-        <v>674</v>
+        <v>1517</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>537</v>
       </c>
       <c r="C537">
-        <v>79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="A538" s="1">
-        <v>677</v>
+        <v>1518</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>538</v>
       </c>
       <c r="C538">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="A539" s="1">
-        <v>678</v>
+        <v>1520</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>539</v>
       </c>
       <c r="C539">
-        <v>158</v>
+        <v>91</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="A540" s="1">
-        <v>680</v>
+        <v>1523</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>540</v>
       </c>
       <c r="C540">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="A541" s="1">
-        <v>684</v>
+        <v>1524</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>541</v>
       </c>
       <c r="C541">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="A542" s="1">
-        <v>688</v>
+        <v>1528</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>542</v>
       </c>
       <c r="C542">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="543" spans="1:3">
       <c r="A543" s="1">
-        <v>690</v>
+        <v>1530</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>543</v>
       </c>
       <c r="C543">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="A544" s="1">
-        <v>691</v>
+        <v>1534</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>544</v>
       </c>
       <c r="C544">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="545" spans="1:3">
       <c r="A545" s="1">
-        <v>698</v>
+        <v>1538</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>545</v>
       </c>
       <c r="C545">
-        <v>412</v>
+        <v>11</v>
       </c>
     </row>
     <row r="546" spans="1:3">
       <c r="A546" s="1">
-        <v>699</v>
+        <v>1544</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>546</v>
       </c>
       <c r="C546">
-        <v>10</v>
+        <v>151</v>
       </c>
     </row>
     <row r="547" spans="1:3">
       <c r="A547" s="1">
-        <v>704</v>
+        <v>1547</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>547</v>
       </c>
       <c r="C547">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="548" spans="1:3">
       <c r="A548" s="1">
-        <v>707</v>
+        <v>1550</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>548</v>
       </c>
       <c r="C548">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="549" spans="1:3">
       <c r="A549" s="1">
-        <v>710</v>
+        <v>1553</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>549</v>
       </c>
       <c r="C549">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="550" spans="1:3">
       <c r="A550" s="1">
-        <v>713</v>
+        <v>1554</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>550</v>
       </c>
       <c r="C550">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="551" spans="1:3">
       <c r="A551" s="1">
-        <v>714</v>
+        <v>1555</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>551</v>
       </c>
       <c r="C551">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="552" spans="1:3">
       <c r="A552" s="1">
-        <v>717</v>
+        <v>1564</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>552</v>
       </c>
       <c r="C552">
-        <v>190</v>
+        <v>23</v>
       </c>
     </row>
     <row r="553" spans="1:3">
       <c r="A553" s="1">
-        <v>718</v>
+        <v>1567</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>553</v>
       </c>
       <c r="C553">
-        <v>25</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="554" spans="1:3">
       <c r="A554" s="1">
-        <v>724</v>
+        <v>1568</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>554</v>
       </c>
       <c r="C554">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="555" spans="1:3">
       <c r="A555" s="1">
-        <v>728</v>
+        <v>1570</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>555</v>
       </c>
       <c r="C555">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="556" spans="1:3">
       <c r="A556" s="1">
-        <v>730</v>
+        <v>1578</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>556</v>
       </c>
       <c r="C556">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="557" spans="1:3">
       <c r="A557" s="1">
-        <v>734</v>
+        <v>1580</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>557</v>
       </c>
       <c r="C557">
-        <v>11</v>
+        <v>93</v>
       </c>
     </row>
     <row r="558" spans="1:3">
       <c r="A558" s="1">
-        <v>740</v>
+        <v>1583</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>558</v>
       </c>
       <c r="C558">
-        <v>151</v>
+        <v>36</v>
       </c>
     </row>
     <row r="559" spans="1:3">
       <c r="A559" s="1">
-        <v>743</v>
+        <v>1588</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>559</v>
       </c>
       <c r="C559">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="560" spans="1:3">
       <c r="A560" s="1">
-        <v>744</v>
+        <v>1594</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>560</v>
       </c>
       <c r="C560">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3">
-      <c r="A561" s="1">
-        <v>745</v>
-      </c>
-      <c r="B561" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C561">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3">
-      <c r="A562" s="1">
-        <v>747</v>
-      </c>
-      <c r="B562" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C562">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3">
-      <c r="A563" s="1">
-        <v>750</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C563">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3">
-      <c r="A564" s="1">
-        <v>753</v>
-      </c>
-      <c r="B564" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C564">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3">
-      <c r="A565" s="1">
-        <v>754</v>
-      </c>
-      <c r="B565" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C565">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3">
-      <c r="A566" s="1">
-        <v>755</v>
-      </c>
-      <c r="B566" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C566">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3">
-      <c r="A567" s="1">
-        <v>764</v>
-      </c>
-      <c r="B567" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C567">
         <v>23</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3">
-      <c r="A568" s="1">
-        <v>767</v>
-      </c>
-      <c r="B568" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C568">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3">
-      <c r="A569" s="1">
-        <v>768</v>
-      </c>
-      <c r="B569" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C569">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3">
-      <c r="A570" s="1">
-        <v>770</v>
-      </c>
-      <c r="B570" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C570">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3">
-      <c r="A571" s="1">
-        <v>778</v>
-      </c>
-      <c r="B571" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C571">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3">
-      <c r="A572" s="1">
-        <v>780</v>
-      </c>
-      <c r="B572" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C572">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3">
-      <c r="A573" s="1">
-        <v>783</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C573">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3">
-      <c r="A574" s="1">
-        <v>788</v>
-      </c>
-      <c r="B574" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C574">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3">
-      <c r="A575" s="1">
-        <v>790</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C575">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3">
-      <c r="A576" s="1">
-        <v>798</v>
-      </c>
-      <c r="B576" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C576">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -9015,22 +8791,6 @@
     <hyperlink ref="B558" r:id="rId557"/>
     <hyperlink ref="B559" r:id="rId558"/>
     <hyperlink ref="B560" r:id="rId559"/>
-    <hyperlink ref="B561" r:id="rId560"/>
-    <hyperlink ref="B562" r:id="rId561"/>
-    <hyperlink ref="B563" r:id="rId562"/>
-    <hyperlink ref="B564" r:id="rId563"/>
-    <hyperlink ref="B565" r:id="rId564"/>
-    <hyperlink ref="B566" r:id="rId565"/>
-    <hyperlink ref="B567" r:id="rId566"/>
-    <hyperlink ref="B568" r:id="rId567"/>
-    <hyperlink ref="B569" r:id="rId568"/>
-    <hyperlink ref="B570" r:id="rId569"/>
-    <hyperlink ref="B571" r:id="rId570"/>
-    <hyperlink ref="B572" r:id="rId571"/>
-    <hyperlink ref="B573" r:id="rId572"/>
-    <hyperlink ref="B574" r:id="rId573"/>
-    <hyperlink ref="B575" r:id="rId574"/>
-    <hyperlink ref="B576" r:id="rId575"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
